--- a/mcmaster_excel/Metric_Steel_Pan_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/Metric_Steel_Pan_Head_Slotted_Screws.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,79 +435,89 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Standard Head— Zinc-Plated Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Lg.,mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M2 × 0.4 mm</t>
+          <t>Standard Head— Zinc-Plated Steel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -567,7 +577,11 @@
           <t>$4.81</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -616,7 +630,11 @@
           <t>15.91</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -665,7 +683,11 @@
           <t>4.81</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -714,30 +736,70 @@
           <t>4.95</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>90353A001</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -772,21 +834,25 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>90353A001</t>
+          <t>90353A002</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>14.82</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -821,21 +887,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>90353A002</t>
+          <t>90353A003</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>13.34</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -870,21 +940,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>90353A003</t>
+          <t>90353A004</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -919,21 +993,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>90353A004</t>
+          <t>90353A005</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>14.83</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>19.27</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -968,21 +1046,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>90353A005</t>
+          <t>90353A006</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>19.27</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1017,21 +1099,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>90353A006</t>
+          <t>90353A007</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>13.34</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1066,38 +1152,78 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>90353A007</t>
+          <t>90353A110</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>22.23</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>90353A111</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>M2.6 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1132,21 +1258,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>90353A110</t>
+          <t>90353A112</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11.46</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1181,21 +1311,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>90353A111</t>
+          <t>90353A113</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1230,21 +1364,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>90353A112</t>
+          <t>90353A114</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1279,21 +1417,25 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>90353A113</t>
+          <t>90353A115</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1328,21 +1470,25 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>90353A114</t>
+          <t>90353A120</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1352,12 +1498,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1377,21 +1523,25 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>90353A115</t>
+          <t>90353A140</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1401,12 +1551,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1426,38 +1576,78 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>90353A120</t>
+          <t>90353A141</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>15.04</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>90353A142</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1492,7 +1682,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>90353A140</t>
+          <t>90353A143</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1500,13 +1690,17 @@
           <t>4.21</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1541,21 +1735,25 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>90353A141</t>
+          <t>90353A144</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1590,21 +1788,25 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>90353A142</t>
+          <t>90353A145</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1639,21 +1841,25 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>90353A143</t>
+          <t>90353A146</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1688,21 +1894,25 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>90353A144</t>
+          <t>90353A148</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1737,21 +1947,25 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>90353A145</t>
+          <t>90353A150</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1786,21 +2000,25 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>90353A146</t>
+          <t>90353A151</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1835,21 +2053,25 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>90353A148</t>
+          <t>90353A152</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1884,21 +2106,25 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>90353A150</t>
+          <t>90353A154</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1908,12 +2134,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1933,21 +2159,25 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>90353A151</t>
+          <t>90353A170</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1957,12 +2187,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1982,21 +2212,25 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>90353A152</t>
+          <t>90353A171</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2006,12 +2240,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2031,38 +2265,78 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>90353A154</t>
+          <t>90353A172</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10.42</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>90353A173</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
           <t>M3.5 × 0.6 mm</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2097,7 +2371,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>90353A170</t>
+          <t>90353A174</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2105,13 +2379,17 @@
           <t>6.01</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2146,21 +2424,25 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>90353A171</t>
+          <t>90353A175</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2195,21 +2477,25 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>90353A172</t>
+          <t>90353A177</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2244,21 +2530,25 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>90353A173</t>
+          <t>90353A178</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2293,21 +2583,25 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>90353A174</t>
+          <t>90353A182</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2317,12 +2611,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2342,21 +2636,25 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>90353A175</t>
+          <t>90353A211</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2366,12 +2664,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2391,21 +2689,25 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>90353A177</t>
+          <t>90353A212</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2415,12 +2717,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2440,21 +2742,25 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>90353A178</t>
+          <t>90353A213</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2464,12 +2770,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2489,38 +2795,78 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>90353A182</t>
+          <t>90353A214</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr"/>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>90353A228</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2555,21 +2901,25 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>90353A211</t>
+          <t>90353A215</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2604,21 +2954,25 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>90353A212</t>
+          <t>90353A217</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2653,21 +3007,25 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>90353A213</t>
+          <t>90353A219</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2702,21 +3060,25 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>90353A214</t>
+          <t>90353A221</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2751,21 +3113,25 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>90353A228</t>
+          <t>90353A222</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2800,21 +3166,25 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>90353A215</t>
+          <t>90353A223</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2824,12 +3194,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2849,7 +3219,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>90353A217</t>
+          <t>90353A250</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2857,13 +3227,17 @@
           <t>7.21</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2873,12 +3247,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2898,7 +3272,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>90353A219</t>
+          <t>90353A251</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2906,13 +3280,17 @@
           <t>7.21</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2922,12 +3300,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2947,21 +3325,25 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>90353A221</t>
+          <t>90353A252</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2971,12 +3353,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2996,21 +3378,25 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>90353A222</t>
+          <t>90353A253</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>11.31</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3020,12 +3406,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3045,38 +3431,78 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>90353A223</t>
+          <t>90353A254</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
+          <t>13.54</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>90353A256</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3111,21 +3537,25 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>90353A250</t>
+          <t>90353A258</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3160,21 +3590,25 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>90353A251</t>
+          <t>90353A260</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3209,21 +3643,25 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>90353A252</t>
+          <t>90353A262</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3233,12 +3671,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3258,21 +3696,25 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>90353A253</t>
+          <t>90353A311</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr"/>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3282,12 +3724,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3307,21 +3749,25 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>90353A254</t>
+          <t>90353A312</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>13.54</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr"/>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3331,12 +3777,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3356,21 +3802,25 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>90353A256</t>
+          <t>90353A329</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>10.81</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr"/>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3380,12 +3830,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3405,21 +3855,25 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>90353A258</t>
+          <t>90353A314</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>10.81</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3429,12 +3883,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3454,21 +3908,25 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>90353A260</t>
+          <t>90353A315</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr"/>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3478,12 +3936,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3503,7 +3961,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>90353A262</t>
+          <t>90353A317</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3511,30 +3969,70 @@
           <t>16.23</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>90353A526</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3544,12 +4042,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3564,26 +4062,30 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>90353A311</t>
+          <t>90353A571</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3593,12 +4095,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3613,26 +4115,30 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>90353A312</t>
+          <t>90353A619</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3642,12 +4148,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3662,26 +4168,30 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>90353A329</t>
+          <t>90353A652</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>14.42</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3691,12 +4201,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3711,20 +4221,24 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>90353A314</t>
+          <t>90353A672</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -3740,12 +4254,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3760,20 +4274,24 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>90353A315</t>
+          <t>90353A712</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>15.62</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr"/>
+          <t>11.14</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -3789,12 +4307,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3809,447 +4327,78 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>90353A317</t>
+          <t>90353A719</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>16.23</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>90353A852</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>90353A526</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>90353A571</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>14.99</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>90353A619</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>17.27</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>90353A652</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>90353A672</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>11.36</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>M10 × 1.5 mm</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>90353A712</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>11.14</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>90353A719</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>13.63</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>90353A852</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>14.99</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4262,7 +4411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4271,79 +4420,89 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wide Head— Zinc-Plated Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Lg.,mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
+          <t>Wide Head— Zinc-Plated Steel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -4403,7 +4562,11 @@
           <t>$10.00</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -4452,7 +4615,11 @@
           <t>9.65</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -4501,7 +4668,11 @@
           <t>10.65</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -4550,7 +4721,11 @@
           <t>9.28</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -4599,30 +4774,70 @@
           <t>8.93</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>DIN 921</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>90383A105</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4657,21 +4872,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>90383A105</t>
+          <t>90383A106</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10.71</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4706,21 +4925,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>90383A106</t>
+          <t>90383A107</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4755,21 +4978,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>90383A107</t>
+          <t>90383A108</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>9.78</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4804,21 +5031,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>90383A108</t>
+          <t>90383A109</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4853,21 +5084,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>90383A109</t>
+          <t>90383A110</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4877,12 +5112,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4897,43 +5132,83 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>90383A110</t>
+          <t>90383A111</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11.93</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>DIN 921</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>90383A112</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4968,21 +5243,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>90383A111</t>
+          <t>90383A113</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5017,70 +5296,78 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>90383A112</t>
+          <t>90383A114</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>14.29</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>DIN 921</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>DIN 921</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>90383A113</t>
+          <t>90383A115</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5090,12 +5377,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5115,21 +5402,25 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>90383A114</t>
+          <t>90383A116</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -5139,12 +5430,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5164,38 +5455,78 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>90383A115</t>
+          <t>90383A117</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>18.57</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>DIN 921</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>90383A118</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5230,70 +5561,78 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>90383A116</t>
+          <t>90383A119</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>DIN 921</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>DIN 921</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>90383A117</t>
+          <t>90383A120</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>18.57</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5303,12 +5642,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5323,26 +5662,30 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>90383A118</t>
+          <t>90383A121</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5352,12 +5695,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5372,26 +5715,30 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>90383A119</t>
+          <t>90383A122</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5401,12 +5748,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5421,43 +5768,83 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>90383A120</t>
+          <t>90383A123</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>DIN 921</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>90383A124</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
           <t>M8 × 1.25 mm</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5467,12 +5854,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5487,26 +5874,30 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>90383A121</t>
+          <t>90383A125</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>12.86</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5516,12 +5907,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -5541,15 +5932,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>90383A122</t>
+          <t>90383A127</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -5565,12 +5960,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -5590,229 +5985,20 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>90383A123</t>
+          <t>90383A126</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>DIN 921</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>90383A124</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>M10 × 1.5 mm</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>DIN 921</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>90383A125</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>10.67</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>DIN 921</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>90383A127</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>DIN 921</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>90383A126</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
